--- a/Src/DetailedSamples/Samples/Style/Output/SetFormattings.xlsx
+++ b/Src/DetailedSamples/Samples/Style/Output/SetFormattings.xlsx
@@ -2,19 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" activeTab="3" firstSheet="0"/>
+    <workbookView xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="R5199444d7b044199"/>
-    <sheet name="Rows" sheetId="2" r:id="R74f42b624d9a4df0"/>
-    <sheet name="Columns" sheetId="3" r:id="R060da5460356466d"/>
-    <sheet name="Xceed Trial License" sheetId="4" r:id="Re2fdbf9cb2df4978"/>
+    <sheet name="Sheet1" sheetId="1" r:id="R64b4da852feb4cd8"/>
+    <sheet name="Rows" sheetId="2" r:id="R4ec0868ed5bd4f9a"/>
+    <sheet name="Columns" sheetId="3" r:id="Rff8b0a083d204195"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Set Formattings</t>
   </si>
@@ -104,12 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve">Setting column D formatting to 21 (or h:mm:ss) using the PredefinedFormatNumberId:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This workbook was created using the trial version of Xceed Workbooks for .NET.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please contact sales@xceed.com if you are ready to purchase.</t>
   </si>
 </sst>
 </file>
@@ -126,7 +119,7 @@
     <numFmt numFmtId="170" formatCode="mmm -yy"/>
     <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <color theme="1"/>
       <sz val="11"/>
@@ -142,12 +135,6 @@
       <b/>
       <color theme="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFF8C00"/>
-      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -171,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -191,7 +178,6 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="0">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -644,10 +630,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="11">
-        <v>45489.3775126273</v>
+        <v>45567.5601709375</v>
       </c>
       <c r="C10" s="12">
-        <v>45489.3775126273</v>
+        <v>45567.5601709375</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
@@ -656,10 +642,10 @@
         <v>25</v>
       </c>
       <c r="H10" s="11">
-        <v>45489.3775126505</v>
+        <v>45567.5601709491</v>
       </c>
       <c r="I10" s="13">
-        <v>45489.3775126505</v>
+        <v>45567.5601709491</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +653,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="11">
-        <v>45489.3775126273</v>
+        <v>45567.5601709375</v>
       </c>
       <c r="C11" s="14">
-        <v>45489.3775126273</v>
+        <v>45567.5601709375</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
@@ -679,10 +665,10 @@
         <v>27</v>
       </c>
       <c r="H11" s="11">
-        <v>45489.3775126505</v>
+        <v>45567.5601709491</v>
       </c>
       <c r="I11" s="15">
-        <v>45489.3775126505</v>
+        <v>45567.5601709491</v>
       </c>
     </row>
     <row r="12">
@@ -690,10 +676,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="11">
-        <v>45489.3775126273</v>
+        <v>45567.5601709375</v>
       </c>
       <c r="C12" s="16">
-        <v>45489.3775126273</v>
+        <v>45567.5601709375</v>
       </c>
     </row>
   </sheetData>
@@ -753,24 +739,4 @@
     </row>
   </sheetData>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="9">
-      <c r="A9" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-</worksheet>
 </file>